--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgiev10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Softuni\10.JavaScript-SPA-with-AngularJS\adsAngularJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="JS-SPA-Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,9 @@
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
@@ -752,7 +754,9 @@
       <c r="D8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -762,7 +766,9 @@
       <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
@@ -948,7 +954,9 @@
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
@@ -978,7 +986,9 @@
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
